--- a/downloads/notebooks/data/analysis4/Premium_Loss.xlsx
+++ b/downloads/notebooks/data/analysis4/Premium_Loss.xlsx
@@ -5,15 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\notebooks\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\notebooks\data\analysis4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="premium" sheetId="1" r:id="rId1"/>
     <sheet name="loss" sheetId="2" r:id="rId2"/>
+    <sheet name="hidden1" sheetId="3" r:id="rId3"/>
+    <sheet name="hidden2" sheetId="4" r:id="rId4"/>
+    <sheet name="hidden3" sheetId="5" r:id="rId5"/>
+    <sheet name="hidden4" sheetId="6" r:id="rId6"/>
+    <sheet name="hidden5" sheetId="7" r:id="rId7"/>
+    <sheet name="hidden6" sheetId="8" r:id="rId8"/>
+    <sheet name="hidden7" sheetId="9" r:id="rId9"/>
+    <sheet name="hidden8" sheetId="10" r:id="rId10"/>
+    <sheet name="hidden9" sheetId="11" r:id="rId11"/>
+    <sheet name="hidden10" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -8698,11 +8708,49 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K5:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -14921,4 +14969,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/downloads/notebooks/data/analysis4/Premium_Loss.xlsx
+++ b/downloads/notebooks/data/analysis4/Premium_Loss.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="premium" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="590">
   <si>
     <t>Policy Number</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Carmen  </t>
-  </si>
-  <si>
-    <t>Zola  </t>
   </si>
   <si>
     <t>Nicky  </t>
@@ -2280,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,19 +2311,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2334,19 +2331,19 @@
         <v>10880</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="4">
         <v>42924</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G2" s="5">
         <v>232058</v>
@@ -2369,16 +2366,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="6">
         <v>42997</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G3" s="2">
         <v>11308</v>
@@ -2401,16 +2398,16 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="6">
         <v>42997</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G4" s="2">
         <v>11308</v>
@@ -2430,19 +2427,19 @@
         <v>11339</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D5" s="7">
         <v>43094</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G5" s="2">
         <v>2651</v>
@@ -2462,19 +2459,19 @@
         <v>11339</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D6" s="7">
         <v>43094</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G6" s="2">
         <v>2651</v>
@@ -2497,16 +2494,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="4">
         <v>42891</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G7" s="5">
         <v>5132</v>
@@ -2526,19 +2523,19 @@
         <v>10244</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D8" s="4">
         <v>42954</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G8" s="5">
         <v>13330</v>
@@ -2558,16 +2555,16 @@
         <v>11106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D9" s="6">
         <v>42961</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G9" s="2">
         <v>446997</v>
@@ -2584,25 +2581,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>11271</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>11106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>222</v>
+        <v>394</v>
       </c>
       <c r="D10" s="6">
-        <v>42931</v>
+        <v>42961</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G10" s="2">
-        <v>24252</v>
+        <v>446997</v>
       </c>
       <c r="H10" s="2">
         <v>1000000</v>
@@ -2611,7 +2605,7 @@
         <v>3900000</v>
       </c>
       <c r="J10" s="1">
-        <v>97474</v>
+        <v>97303</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2619,19 +2613,19 @@
         <v>10509</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D11" s="4">
         <v>42775</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G11" s="5">
         <v>5647</v>
@@ -2651,19 +2645,19 @@
         <v>11415</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D12" s="7">
         <v>42913</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G12" s="2">
         <v>205839</v>
@@ -2683,19 +2677,19 @@
         <v>11762</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" s="7">
         <v>42851</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G13" s="2">
         <v>4514</v>
@@ -2718,16 +2712,16 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="4">
         <v>43015</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G14" s="5">
         <v>12021</v>
@@ -2747,19 +2741,19 @@
         <v>11887</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D15" s="7">
         <v>43083</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G15" s="2">
         <v>2309</v>
@@ -2779,19 +2773,19 @@
         <v>12390</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" s="7">
         <v>42846</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G16" s="2">
         <v>20506</v>
@@ -2811,19 +2805,19 @@
         <v>12470</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D17" s="7">
         <v>43000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G17" s="2">
         <v>111522</v>
@@ -2843,19 +2837,19 @@
         <v>12602</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D18" s="7">
         <v>42974</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G18" s="2">
         <v>133494</v>
@@ -2875,16 +2869,16 @@
         <v>12652</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D19" s="6">
         <v>42941</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G19" s="2">
         <v>371474</v>
@@ -2904,19 +2898,19 @@
         <v>12803</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D20" s="7">
         <v>42981</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G20" s="2">
         <v>15003</v>
@@ -2936,19 +2930,19 @@
         <v>13281</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D21" s="4">
         <v>42871</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G21" s="5">
         <v>12580</v>
@@ -2968,19 +2962,19 @@
         <v>13490</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="4">
         <v>43018</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G22" s="5">
         <v>3555</v>
@@ -3000,19 +2994,19 @@
         <v>13854</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D23" s="4">
         <v>43024</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G23" s="5">
         <v>20603</v>
@@ -3032,19 +3026,19 @@
         <v>13931</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D24" s="4">
         <v>43027</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G24" s="5">
         <v>79984</v>
@@ -3064,19 +3058,19 @@
         <v>14457</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D25" s="4">
         <v>42771</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G25" s="5">
         <v>7508</v>
@@ -3096,19 +3090,19 @@
         <v>14570</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D26" s="7">
         <v>42857</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G26" s="2">
         <v>16597</v>
@@ -3128,19 +3122,19 @@
         <v>14622</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D27" s="7">
         <v>42769</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G27" s="2">
         <v>3717</v>
@@ -3160,19 +3154,19 @@
         <v>14967</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="6">
         <v>42972</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G28" s="2">
         <v>2474</v>
@@ -3195,16 +3189,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" s="6">
         <v>42780</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G29" s="2">
         <v>45447</v>
@@ -3227,16 +3221,16 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D30" s="6">
         <v>42841</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G30" s="2">
         <v>9401</v>
@@ -3256,19 +3250,19 @@
         <v>15561</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D31" s="7">
         <v>42942</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G31" s="2">
         <v>19012</v>
@@ -3291,16 +3285,16 @@
         <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D32" s="7">
         <v>42954</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G32" s="2">
         <v>2564</v>
@@ -3320,19 +3314,19 @@
         <v>15833</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33" s="7">
         <v>42792</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G33" s="2">
         <v>109108</v>
@@ -3352,19 +3346,19 @@
         <v>15850</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D34" s="7">
         <v>42923</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G34" s="2">
         <v>2997</v>
@@ -3384,19 +3378,19 @@
         <v>16626</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D35" s="7">
         <v>42813</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G35" s="2">
         <v>19494</v>
@@ -3416,19 +3410,19 @@
         <v>16877</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D36" s="7">
         <v>42811</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G36" s="2">
         <v>20244</v>
@@ -3448,19 +3442,19 @@
         <v>16912</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D37" s="7">
         <v>42924</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G37" s="2">
         <v>189581</v>
@@ -3480,19 +3474,19 @@
         <v>16949</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D38" s="7">
         <v>42785</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G38" s="2">
         <v>15781</v>
@@ -3512,19 +3506,19 @@
         <v>17058</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D39" s="7">
         <v>42867</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G39" s="2">
         <v>12882</v>
@@ -3544,19 +3538,19 @@
         <v>17430</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D40" s="7">
         <v>42810</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G40" s="2">
         <v>4782</v>
@@ -3576,19 +3570,19 @@
         <v>17700</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D41" s="7">
         <v>43035</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G41" s="2">
         <v>179396</v>
@@ -3608,19 +3602,19 @@
         <v>17967</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D42" s="7">
         <v>42772</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G42" s="2">
         <v>46608</v>
@@ -3640,19 +3634,19 @@
         <v>18029</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D43" s="7">
         <v>42963</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G43" s="2">
         <v>19870</v>
@@ -3675,16 +3669,16 @@
         <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D44" s="6">
         <v>42873</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G44" s="2">
         <v>2157</v>
@@ -3704,19 +3698,19 @@
         <v>18099</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D45" s="7">
         <v>43035</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G45" s="2">
         <v>3171</v>
@@ -3736,19 +3730,19 @@
         <v>18141</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D46" s="7">
         <v>43091</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G46" s="2">
         <v>5293</v>
@@ -3771,16 +3765,16 @@
         <v>27</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D47" s="6">
         <v>43075</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G47" s="2">
         <v>3890</v>
@@ -3800,19 +3794,19 @@
         <v>18472</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D48" s="7">
         <v>42999</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G48" s="2">
         <v>44434</v>
@@ -3835,16 +3829,16 @@
         <v>32</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" s="6">
         <v>42870</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G49" s="2">
         <v>2666</v>
@@ -3864,19 +3858,19 @@
         <v>18627</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D50" s="6">
         <v>43084</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G50" s="2">
         <v>11738</v>
@@ -3896,19 +3890,19 @@
         <v>19089</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D51" s="7">
         <v>42774</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G51" s="2">
         <v>4777</v>
@@ -3928,19 +3922,19 @@
         <v>19162</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D52" s="7">
         <v>43049</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G52" s="2">
         <v>152892</v>
@@ -3960,19 +3954,19 @@
         <v>19548</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D53" s="7">
         <v>43026</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G53" s="2">
         <v>14091</v>
@@ -3992,19 +3986,19 @@
         <v>19907</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D54" s="7">
         <v>43038</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G54" s="2">
         <v>2166</v>
@@ -4024,19 +4018,19 @@
         <v>20272</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D55" s="7">
         <v>42938</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G55" s="2">
         <v>15700</v>
@@ -4056,19 +4050,19 @@
         <v>20309</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D56" s="7">
         <v>43068</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G56" s="2">
         <v>180736</v>
@@ -4091,16 +4085,16 @@
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D57" s="6">
         <v>42876</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G57" s="2">
         <v>20165</v>
@@ -4120,19 +4114,19 @@
         <v>20753</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D58" s="7">
         <v>42882</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G58" s="2">
         <v>16226</v>
@@ -4152,19 +4146,19 @@
         <v>20835</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D59" s="7">
         <v>42774</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G59" s="2">
         <v>11402</v>
@@ -4187,16 +4181,16 @@
         <v>19</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D60" s="6">
         <v>42940</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G60" s="2">
         <v>194425</v>
@@ -4216,19 +4210,19 @@
         <v>21298</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D61" s="7">
         <v>42988</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G61" s="2">
         <v>4934</v>
@@ -4251,16 +4245,16 @@
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="6">
         <v>42770</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G62" s="2">
         <v>3318</v>
@@ -4280,19 +4274,19 @@
         <v>21547</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D63" s="7">
         <v>43034</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G63" s="2">
         <v>5394</v>
@@ -4312,19 +4306,19 @@
         <v>21585</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D64" s="7">
         <v>43090</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G64" s="2">
         <v>2849</v>
@@ -4344,19 +4338,19 @@
         <v>21709</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="7">
         <v>42921</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G65" s="2">
         <v>2682</v>
@@ -4376,19 +4370,19 @@
         <v>21921</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D66" s="7">
         <v>42841</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G66" s="2">
         <v>178204</v>
@@ -4408,19 +4402,19 @@
         <v>21975</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D67" s="7">
         <v>43075</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G67" s="2">
         <v>13489</v>
@@ -4440,16 +4434,16 @@
         <v>22346</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D68" s="7">
         <v>42786</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G68" s="2">
         <v>421442</v>
@@ -4469,19 +4463,19 @@
         <v>22674</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D69" s="7">
         <v>42839</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G69" s="2">
         <v>206726</v>
@@ -4501,19 +4495,19 @@
         <v>22779</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D70" s="7">
         <v>42761</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G70" s="2">
         <v>176059</v>
@@ -4533,19 +4527,19 @@
         <v>22823</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D71" s="7">
         <v>42956</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G71" s="2">
         <v>9879</v>
@@ -4565,19 +4559,19 @@
         <v>22877</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D72" s="7">
         <v>43094</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G72" s="2">
         <v>17828</v>
@@ -4597,16 +4591,16 @@
         <v>23042</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D73" s="6">
         <v>42907</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G73" s="2">
         <v>295150</v>
@@ -4626,19 +4620,19 @@
         <v>23166</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D74" s="7">
         <v>42982</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G74" s="2">
         <v>22403</v>
@@ -4658,19 +4652,19 @@
         <v>23183</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D75" s="7">
         <v>43086</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G75" s="2">
         <v>13400</v>
@@ -4690,19 +4684,19 @@
         <v>23323</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D76" s="7">
         <v>42818</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G76" s="2">
         <v>3235</v>
@@ -4725,16 +4719,16 @@
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="6">
         <v>42922</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G77" s="2">
         <v>2222</v>
@@ -4754,19 +4748,19 @@
         <v>23709</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D78" s="7">
         <v>43010</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G78" s="2">
         <v>108464</v>
@@ -4786,19 +4780,19 @@
         <v>23802</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D79" s="7">
         <v>42779</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G79" s="2">
         <v>131115</v>
@@ -4818,19 +4812,19 @@
         <v>24048</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D80" s="7">
         <v>42808</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G80" s="2">
         <v>7122</v>
@@ -4850,19 +4844,19 @@
         <v>24252</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D81" s="7">
         <v>43014</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G81" s="2">
         <v>3485</v>
@@ -4882,19 +4876,19 @@
         <v>24275</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D82" s="7">
         <v>42963</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G82" s="2">
         <v>93438</v>
@@ -4914,19 +4908,19 @@
         <v>24339</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D83" s="7">
         <v>42992</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G83" s="2">
         <v>112779</v>
@@ -4946,16 +4940,16 @@
         <v>24369</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D84" s="6">
         <v>42805</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G84" s="2">
         <v>383285</v>
@@ -4975,19 +4969,19 @@
         <v>24633</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D85" s="7">
         <v>43063</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G85" s="2">
         <v>3545</v>
@@ -5007,19 +5001,19 @@
         <v>24704</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D86" s="7">
         <v>42900</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G86" s="2">
         <v>14490</v>
@@ -5039,19 +5033,19 @@
         <v>24712</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D87" s="7">
         <v>42919</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G87" s="2">
         <v>234841</v>
@@ -5071,19 +5065,19 @@
         <v>24809</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D88" s="7">
         <v>43081</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G88" s="2">
         <v>173441</v>
@@ -5106,16 +5100,16 @@
         <v>17</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89" s="6">
         <v>42913</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G89" s="2">
         <v>205248</v>
@@ -5135,19 +5129,19 @@
         <v>25090</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D90" s="7">
         <v>42770</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G90" s="2">
         <v>49258</v>
@@ -5167,19 +5161,19 @@
         <v>25163</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="7">
         <v>42796</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G91" s="2">
         <v>5860</v>
@@ -5199,19 +5193,19 @@
         <v>25164</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D92" s="7">
         <v>42833</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G92" s="2">
         <v>5090</v>
@@ -5231,19 +5225,19 @@
         <v>25223</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="7">
         <v>42863</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G93" s="2">
         <v>3097</v>
@@ -5263,19 +5257,19 @@
         <v>25528</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D94" s="7">
         <v>42759</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G94" s="2">
         <v>3024</v>
@@ -5295,19 +5289,19 @@
         <v>25554</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D95" s="7">
         <v>42953</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G95" s="2">
         <v>19083</v>
@@ -5327,19 +5321,19 @@
         <v>25589</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D96" s="7">
         <v>42914</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G96" s="2">
         <v>13468</v>
@@ -5359,19 +5353,19 @@
         <v>25700</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D97" s="7">
         <v>42800</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G97" s="2">
         <v>45738</v>
@@ -5394,16 +5388,16 @@
         <v>25</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D98" s="6">
         <v>43047</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G98" s="2">
         <v>5988</v>
@@ -5423,19 +5417,19 @@
         <v>26404</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D99" s="7">
         <v>42853</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G99" s="2">
         <v>5005</v>
@@ -5455,16 +5449,16 @@
         <v>26547</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D100" s="7">
         <v>42798</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G100" s="2">
         <v>205137</v>
@@ -5484,19 +5478,19 @@
         <v>26797</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D101" s="7">
         <v>42815</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G101" s="2">
         <v>2914</v>
@@ -5516,19 +5510,19 @@
         <v>26888</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D102" s="7">
         <v>42867</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G102" s="2">
         <v>34719</v>
@@ -5548,19 +5542,19 @@
         <v>26958</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D103" s="7">
         <v>43088</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G103" s="2">
         <v>3585</v>
@@ -5580,19 +5574,19 @@
         <v>27089</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D104" s="7">
         <v>43027</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G104" s="2">
         <v>120793</v>
@@ -5615,16 +5609,16 @@
         <v>31</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D105" s="6">
         <v>42869</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G105" s="2">
         <v>196411</v>
@@ -5647,16 +5641,16 @@
         <v>27</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D106" s="7">
         <v>42736</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G106" s="2">
         <v>3392</v>
@@ -5673,19 +5667,19 @@
         <v>27333</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D107" s="7">
         <v>42874</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G107" s="2">
         <v>18081</v>
@@ -5708,16 +5702,16 @@
         <v>22</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D108" s="6">
         <v>43007</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G108" s="2">
         <v>247008</v>
@@ -5737,19 +5731,19 @@
         <v>28077</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D109" s="7">
         <v>43037</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G109" s="2">
         <v>42758</v>
@@ -5769,19 +5763,19 @@
         <v>28089</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D110" s="7">
         <v>42964</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G110" s="2">
         <v>179349</v>
@@ -5801,19 +5795,19 @@
         <v>29447</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D111" s="6">
         <v>42947</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G111" s="2">
         <v>1375</v>
@@ -5833,16 +5827,16 @@
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D112" s="6">
         <v>42909</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G112" s="2">
         <v>13624</v>
@@ -5862,16 +5856,16 @@
         <v>29777</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D113" s="6">
         <v>42787</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G113" s="2">
         <v>364822</v>
@@ -5894,16 +5888,16 @@
         <v>30</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D114" s="6">
         <v>42737</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G114" s="2">
         <v>4361</v>
@@ -5923,16 +5917,16 @@
         <v>30358</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D115" s="6">
         <v>42788</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G115" s="2">
         <v>202100</v>
@@ -5952,19 +5946,19 @@
         <v>30438</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D116" s="7">
         <v>42998</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G116" s="2">
         <v>217270</v>
@@ -5984,19 +5978,19 @@
         <v>31202</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D117" s="7">
         <v>42995</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G117" s="2">
         <v>24775</v>
@@ -6016,19 +6010,19 @@
         <v>31252</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D118" s="7">
         <v>42918</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G118" s="2">
         <v>20548</v>
@@ -6048,19 +6042,19 @@
         <v>31392</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="7">
         <v>42887</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G119" s="2">
         <v>4439</v>
@@ -6080,16 +6074,16 @@
         <v>21</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D120" s="6">
         <v>43003</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G120" s="2">
         <v>5208</v>
@@ -6109,19 +6103,19 @@
         <v>32407</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121" s="6">
         <v>42935</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G121" s="2">
         <v>21110</v>
@@ -6141,19 +6135,19 @@
         <v>32757</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D122" s="7">
         <v>43073</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G122" s="2">
         <v>4793</v>
@@ -6173,19 +6167,19 @@
         <v>33172</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D123" s="7">
         <v>42971</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G123" s="2">
         <v>213746</v>
@@ -6205,19 +6199,19 @@
         <v>33542</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D124" s="7">
         <v>43051</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G124" s="2">
         <v>143380</v>
@@ -6237,19 +6231,19 @@
         <v>33615</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D125" s="7">
         <v>42874</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G125" s="2">
         <v>5459</v>
@@ -6269,19 +6263,19 @@
         <v>33661</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D126" s="7">
         <v>42925</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G126" s="2">
         <v>2952</v>
@@ -6301,19 +6295,19 @@
         <v>34291</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D127" s="7">
         <v>42738</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G127" s="2">
         <v>242031</v>
@@ -6333,19 +6327,19 @@
         <v>34328</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D128" s="7">
         <v>43041</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G128" s="2">
         <v>19276</v>
@@ -6368,16 +6362,16 @@
         <v>34</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D129" s="6">
         <v>42888</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G129" s="2">
         <v>14917</v>
@@ -6397,19 +6391,19 @@
         <v>35550</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D130" s="7">
         <v>42824</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G130" s="2">
         <v>236172</v>
@@ -6429,19 +6423,19 @@
         <v>36217</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D131" s="7">
         <v>42752</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G131" s="2">
         <v>230617</v>
@@ -6464,16 +6458,16 @@
         <v>14</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D132" s="6">
         <v>42895</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G132" s="2">
         <v>4961</v>
@@ -6493,19 +6487,19 @@
         <v>36569</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D133" s="7">
         <v>42947</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G133" s="2">
         <v>6729</v>
@@ -6528,16 +6522,16 @@
         <v>24</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D134" s="6">
         <v>43031</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G134" s="2">
         <v>4428</v>
@@ -6557,19 +6551,19 @@
         <v>36993</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D135" s="7">
         <v>43003</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G135" s="2">
         <v>175840</v>
@@ -6589,19 +6583,19 @@
         <v>37096</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D136" s="7">
         <v>42949</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G136" s="2">
         <v>13028</v>
@@ -6621,19 +6615,19 @@
         <v>37117</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D137" s="7">
         <v>42857</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G137" s="2">
         <v>2807</v>
@@ -6653,19 +6647,19 @@
         <v>37613</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D138" s="7">
         <v>42997</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G138" s="2">
         <v>17991</v>
@@ -6685,19 +6679,19 @@
         <v>37632</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D139" s="7">
         <v>43005</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G139" s="2">
         <v>127132</v>
@@ -6720,16 +6714,16 @@
         <v>26</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D140" s="6">
         <v>43064</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G140" s="2">
         <v>5682</v>
@@ -6749,19 +6743,19 @@
         <v>38205</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D141" s="7">
         <v>42905</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G141" s="2">
         <v>4749</v>
@@ -6781,19 +6775,19 @@
         <v>38453</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D142" s="7">
         <v>42948</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G142" s="2">
         <v>4933</v>
@@ -6813,19 +6807,19 @@
         <v>38681</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D143" s="7">
         <v>42770</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G143" s="2">
         <v>97644</v>
@@ -6845,19 +6839,19 @@
         <v>39091</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D144" s="7">
         <v>43054</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G144" s="2">
         <v>20044</v>
@@ -6880,16 +6874,16 @@
         <v>28</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D145" s="6">
         <v>43082</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G145" s="2">
         <v>131418</v>
@@ -6909,19 +6903,19 @@
         <v>39568</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D146" s="7">
         <v>42826</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G146" s="2">
         <v>16642</v>
@@ -6941,19 +6935,19 @@
         <v>39658</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D147" s="7">
         <v>42964</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G147" s="2">
         <v>2996</v>
@@ -6973,19 +6967,19 @@
         <v>39680</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D148" s="7">
         <v>42855</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G148" s="2">
         <v>59766</v>
@@ -7005,19 +6999,19 @@
         <v>39761</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D149" s="7">
         <v>42866</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G149" s="2">
         <v>94718</v>
@@ -7040,16 +7034,16 @@
         <v>6</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D150" s="6">
         <v>42742</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G150" s="2">
         <v>6666</v>
@@ -7069,19 +7063,19 @@
         <v>39824</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D151" s="7">
         <v>42799</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G151" s="2">
         <v>4758</v>
@@ -7101,19 +7095,19 @@
         <v>40556</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D152" s="7">
         <v>42960</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G152" s="2">
         <v>3128</v>
@@ -7133,19 +7127,19 @@
         <v>41218</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D153" s="7">
         <v>43006</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G153" s="2">
         <v>20710</v>
@@ -7165,19 +7159,19 @@
         <v>41481</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D154" s="6">
         <v>42983</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G154" s="2">
         <v>24724</v>
@@ -7200,16 +7194,16 @@
         <v>9</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D155" s="6">
         <v>42795</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G155" s="2">
         <v>201772</v>
@@ -7229,19 +7223,19 @@
         <v>41793</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D156" s="7">
         <v>42781</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G156" s="2">
         <v>19686</v>
@@ -7261,19 +7255,19 @@
         <v>42009</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D157" s="7">
         <v>42935</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G157" s="2">
         <v>4745</v>
@@ -7293,19 +7287,19 @@
         <v>42011</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D158" s="7">
         <v>42745</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G158" s="2">
         <v>17067</v>
@@ -7325,19 +7319,19 @@
         <v>42160</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D159" s="7">
         <v>42953</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G159" s="2">
         <v>96622</v>
@@ -7357,19 +7351,19 @@
         <v>42882</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D160" s="6">
         <v>43099</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G160" s="2">
         <v>5594</v>
@@ -7389,19 +7383,19 @@
         <v>43307</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D161" s="7">
         <v>42785</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G161" s="2">
         <v>22071</v>
@@ -7421,19 +7415,19 @@
         <v>43341</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D162" s="7">
         <v>42977</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G162" s="2">
         <v>20274</v>
@@ -7453,19 +7447,19 @@
         <v>43460</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D163" s="7">
         <v>42863</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G163" s="2">
         <v>227009</v>
@@ -7485,19 +7479,19 @@
         <v>43514</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D164" s="7">
         <v>42914</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G164" s="2">
         <v>6728</v>
@@ -7517,19 +7511,19 @@
         <v>43528</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D165" s="6">
         <v>42957</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G165" s="2">
         <v>3226</v>
@@ -7549,19 +7543,19 @@
         <v>43627</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D166" s="7">
         <v>42755</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G166" s="2">
         <v>2508</v>
@@ -7581,19 +7575,19 @@
         <v>43706</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D167" s="7">
         <v>42909</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G167" s="2">
         <v>10687</v>
@@ -7613,19 +7607,19 @@
         <v>43759</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D168" s="6">
         <v>42965</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G168" s="2">
         <v>19161</v>
@@ -7645,19 +7639,19 @@
         <v>43798</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D169" s="7">
         <v>42867</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G169" s="2">
         <v>4652</v>
@@ -7677,19 +7671,19 @@
         <v>44055</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D170" s="7">
         <v>43022</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G170" s="2">
         <v>195100</v>
@@ -7709,19 +7703,19 @@
         <v>44248</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D171" s="6">
         <v>43074</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G171" s="2">
         <v>18278</v>
@@ -7741,19 +7735,19 @@
         <v>44411</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D172" s="7">
         <v>42795</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G172" s="2">
         <v>46307</v>
@@ -7773,19 +7767,19 @@
         <v>44767</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D173" s="7">
         <v>42769</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G173" s="2">
         <v>2175</v>
@@ -7805,19 +7799,19 @@
         <v>45069</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D174" s="7">
         <v>43095</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G174" s="2">
         <v>89244</v>
@@ -7837,19 +7831,19 @@
         <v>45100</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D175" s="7">
         <v>42929</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G175" s="2">
         <v>188359</v>
@@ -7869,19 +7863,19 @@
         <v>45225</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D176" s="7">
         <v>43018</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G176" s="2">
         <v>15678</v>
@@ -7901,19 +7895,19 @@
         <v>45255</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D177" s="7">
         <v>42882</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G177" s="2">
         <v>3013</v>
@@ -7933,19 +7927,19 @@
         <v>45586</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D178" s="7">
         <v>43068</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G178" s="2">
         <v>21765</v>
@@ -7968,16 +7962,16 @@
         <v>18</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D179" s="6">
         <v>42926</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G179" s="2">
         <v>130041</v>
@@ -7997,19 +7991,19 @@
         <v>46031</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D180" s="7">
         <v>42822</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G180" s="2">
         <v>18072</v>
@@ -8029,19 +8023,19 @@
         <v>46186</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D181" s="6">
         <v>42950</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G181" s="2">
         <v>20803</v>
@@ -8061,19 +8055,19 @@
         <v>46824</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D182" s="7">
         <v>42920</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G182" s="2">
         <v>24632</v>
@@ -8093,19 +8087,19 @@
         <v>46863</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D183" s="7">
         <v>43052</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G183" s="2">
         <v>203002</v>
@@ -8125,19 +8119,19 @@
         <v>46938</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D184" s="7">
         <v>43089</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G184" s="2">
         <v>13864</v>
@@ -8157,19 +8151,19 @@
         <v>47005</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D185" s="6">
         <v>43097</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G185" s="2">
         <v>4021</v>
@@ -8189,19 +8183,19 @@
         <v>47222</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D186" s="7">
         <v>42782</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G186" s="2">
         <v>10947</v>
@@ -8221,19 +8215,19 @@
         <v>47287</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D187" s="7">
         <v>42793</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G187" s="2">
         <v>12474</v>
@@ -8253,19 +8247,19 @@
         <v>47386</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D188" s="7">
         <v>42792</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G188" s="2">
         <v>191144</v>
@@ -8285,19 +8279,19 @@
         <v>47432</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D189" s="7">
         <v>43098</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G189" s="2">
         <v>185669</v>
@@ -8320,16 +8314,16 @@
         <v>15</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D190" s="6">
         <v>42906</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G190" s="2">
         <v>10003</v>
@@ -8349,19 +8343,19 @@
         <v>47700</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D191" s="6">
         <v>42938</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G191" s="2">
         <v>101002</v>
@@ -8381,19 +8375,19 @@
         <v>47797</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D192" s="7">
         <v>42968</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G192" s="2">
         <v>144657</v>
@@ -8413,19 +8407,19 @@
         <v>48217</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D193" s="7">
         <v>42917</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G193" s="2">
         <v>118132</v>
@@ -8445,19 +8439,19 @@
         <v>48295</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D194" s="7">
         <v>42975</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G194" s="2">
         <v>23972</v>
@@ -8477,19 +8471,19 @@
         <v>48458</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D195" s="7">
         <v>42765</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G195" s="2">
         <v>17851</v>
@@ -8509,19 +8503,19 @@
         <v>48563</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D196" s="7">
         <v>43050</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G196" s="2">
         <v>66980</v>
@@ -8541,19 +8535,19 @@
         <v>48806</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D197" s="7">
         <v>42768</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G197" s="2">
         <v>10318</v>
@@ -8576,16 +8570,16 @@
         <v>10</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D198" s="6">
         <v>42831</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G198" s="2">
         <v>11871</v>
@@ -8605,19 +8599,19 @@
         <v>49517</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D199" s="7">
         <v>42783</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G199" s="2">
         <v>19229</v>
@@ -8640,16 +8634,16 @@
         <v>29</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D200" s="6">
         <v>43091</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G200" s="2">
         <v>20256</v>
@@ -8669,19 +8663,19 @@
         <v>49653</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D201" s="7">
         <v>43002</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G201" s="2">
         <v>18161</v>
@@ -8736,7 +8730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
@@ -8750,8 +8744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K217"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8775,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -8787,13 +8781,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>5</v>
@@ -8808,13 +8802,13 @@
         <v>880247</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" s="7">
         <v>42811</v>
@@ -8837,13 +8831,13 @@
         <v>880247</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" s="7">
         <v>42811</v>
@@ -8866,13 +8860,13 @@
         <v>880255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7">
         <v>43064</v>
@@ -8895,13 +8889,13 @@
         <v>880255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7">
         <v>43064</v>
@@ -8910,7 +8904,7 @@
         <v>88205</v>
       </c>
       <c r="H5" s="11">
-        <v>54785</v>
+        <v>4000000</v>
       </c>
       <c r="I5" s="11">
         <v>116133</v>
@@ -8924,13 +8918,13 @@
         <v>880258</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F6" s="7">
         <v>42812</v>
@@ -8953,13 +8947,13 @@
         <v>880357</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7">
         <v>43094</v>
@@ -8982,13 +8976,13 @@
         <v>880016</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F8" s="9">
         <v>42992</v>
@@ -9011,13 +9005,13 @@
         <v>880041</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" s="9">
         <v>43055</v>
@@ -9040,13 +9034,13 @@
         <v>880205</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10" s="9">
         <v>43074</v>
@@ -9069,13 +9063,13 @@
         <v>880206</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="9">
         <v>43002</v>
@@ -9098,13 +9092,13 @@
         <v>880208</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="9">
         <v>43212</v>
@@ -9127,13 +9121,13 @@
         <v>880361</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7">
         <v>43086</v>
@@ -9156,13 +9150,13 @@
         <v>880457</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7">
         <v>42869</v>
@@ -9185,13 +9179,13 @@
         <v>880489</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" s="7">
         <v>42902</v>
@@ -9214,13 +9208,13 @@
         <v>880597</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7">
         <v>43021</v>
@@ -9243,13 +9237,13 @@
         <v>880640</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7">
         <v>42926</v>
@@ -9272,13 +9266,13 @@
         <v>880754</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7">
         <v>42856</v>
@@ -9301,13 +9295,13 @@
         <v>880790</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7">
         <v>42947</v>
@@ -9330,13 +9324,13 @@
         <v>880814</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7">
         <v>43074</v>
@@ -9359,13 +9353,13 @@
         <v>880828</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F21" s="7">
         <v>42951</v>
@@ -9388,13 +9382,13 @@
         <v>880828</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F22" s="9">
         <v>42819</v>
@@ -9417,13 +9411,13 @@
         <v>880902</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="9">
         <v>42941</v>
@@ -9446,13 +9440,13 @@
         <v>880957</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F24" s="9">
         <v>42806</v>
@@ -9475,13 +9469,13 @@
         <v>880979</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F25" s="9">
         <v>42861</v>
@@ -9504,13 +9498,13 @@
         <v>881112</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F26" s="9">
         <v>42861</v>
@@ -9533,10 +9527,10 @@
         <v>881113</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F27" s="7">
         <v>43021</v>
@@ -9559,7 +9553,7 @@
         <v>881114</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F28" s="7">
         <v>42926</v>
@@ -9582,10 +9576,10 @@
         <v>881115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F29" s="7">
         <v>42856</v>
@@ -9608,7 +9602,7 @@
         <v>881116</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F30" s="7">
         <v>42947</v>
@@ -9631,10 +9625,10 @@
         <v>881117</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F31" s="7">
         <v>43074</v>
@@ -9657,10 +9651,10 @@
         <v>881118</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H32" s="11">
         <v>57961</v>
@@ -9674,10 +9668,10 @@
         <v>881119</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H33" s="11">
         <v>57961</v>
@@ -9694,7 +9688,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H34" s="11">
         <v>57961</v>
@@ -9708,10 +9702,10 @@
         <v>881121</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H35" s="11">
         <v>57961</v>
@@ -9725,13 +9719,13 @@
         <v>881122</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F36" s="7">
         <v>42762</v>
@@ -9754,10 +9748,10 @@
         <v>881122</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H37" s="11">
         <v>201075</v>
@@ -9771,13 +9765,13 @@
         <v>881123</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F38" s="6">
         <v>43053</v>
@@ -9800,10 +9794,10 @@
         <v>881123</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H39" s="11">
         <v>98160</v>
@@ -9817,13 +9811,13 @@
         <v>881144</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7">
         <v>41750</v>
@@ -9846,13 +9840,13 @@
         <v>881331</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F41" s="7">
         <v>41713</v>
@@ -9875,13 +9869,13 @@
         <v>881336</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F42" s="7">
         <v>41827</v>
@@ -9904,13 +9898,13 @@
         <v>881344</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F43" s="7">
         <v>41711</v>
@@ -9933,13 +9927,13 @@
         <v>881427</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F44" s="7">
         <v>41918</v>
@@ -9962,13 +9956,13 @@
         <v>881450</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F45" s="6">
         <v>41665</v>
@@ -9991,13 +9985,13 @@
         <v>881514</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F46" s="7">
         <v>41643</v>
@@ -10020,13 +10014,13 @@
         <v>881606</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F47" s="7">
         <v>41887</v>
@@ -10049,13 +10043,13 @@
         <v>881638</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F48" s="7">
         <v>41741</v>
@@ -10078,13 +10072,13 @@
         <v>881648</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F49" s="7">
         <v>41984</v>
@@ -10107,13 +10101,13 @@
         <v>881675</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F50" s="7">
         <v>41848</v>
@@ -10136,13 +10130,13 @@
         <v>881735</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F51" s="7">
         <v>41675</v>
@@ -10165,13 +10159,13 @@
         <v>881801</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F52" s="7">
         <v>41977</v>
@@ -10194,13 +10188,13 @@
         <v>881807</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F53" s="7">
         <v>41657</v>
@@ -10223,13 +10217,13 @@
         <v>881859</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F54" s="7">
         <v>41682</v>
@@ -10252,13 +10246,13 @@
         <v>882006</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F55" s="6">
         <v>41681</v>
@@ -10281,13 +10275,13 @@
         <v>882025</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F56" s="7">
         <v>41745</v>
@@ -10310,13 +10304,13 @@
         <v>882030</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F57" s="7">
         <v>41715</v>
@@ -10339,13 +10333,13 @@
         <v>882211</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F58" s="7">
         <v>41683</v>
@@ -10368,13 +10362,13 @@
         <v>882215</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F59" s="7">
         <v>41680</v>
@@ -10397,13 +10391,13 @@
         <v>882257</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F60" s="7">
         <v>41667</v>
@@ -10426,13 +10420,13 @@
         <v>882264</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F61" s="6">
         <v>41813</v>
@@ -10455,13 +10449,13 @@
         <v>882343</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F62" s="6">
         <v>41924</v>
@@ -10484,10 +10478,10 @@
         <v>882356</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H63" s="11">
         <v>119594</v>
@@ -10501,13 +10495,13 @@
         <v>882574</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F64" s="7">
         <v>41746</v>
@@ -10530,13 +10524,13 @@
         <v>882604</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F65" s="7">
         <v>41960</v>
@@ -10559,13 +10553,13 @@
         <v>882770</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F66" s="7">
         <v>41785</v>
@@ -10588,13 +10582,13 @@
         <v>882780</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F67" s="7">
         <v>41763</v>
@@ -10617,13 +10611,13 @@
         <v>882793</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F68" s="7">
         <v>42613</v>
@@ -10646,13 +10640,13 @@
         <v>882839</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F69" s="7">
         <v>42546</v>
@@ -10675,13 +10669,13 @@
         <v>882952</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F70" s="7">
         <v>42686</v>
@@ -10704,13 +10698,13 @@
         <v>883006</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F71" s="6">
         <v>42554</v>
@@ -10733,13 +10727,13 @@
         <v>883022</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F72" s="7">
         <v>42385</v>
@@ -10762,13 +10756,13 @@
         <v>883047</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F73" s="6">
         <v>42489</v>
@@ -10791,13 +10785,13 @@
         <v>883103</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F74" s="7">
         <v>42481</v>
@@ -10820,13 +10814,13 @@
         <v>883111</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F75" s="7">
         <v>42621</v>
@@ -10849,13 +10843,13 @@
         <v>883201</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F76" s="7">
         <v>42596</v>
@@ -10878,13 +10872,13 @@
         <v>883320</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F77" s="7">
         <v>42526</v>
@@ -10907,13 +10901,13 @@
         <v>883327</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F78" s="7">
         <v>42447</v>
@@ -10936,13 +10930,13 @@
         <v>883385</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F79" s="7">
         <v>42528</v>
@@ -10965,13 +10959,13 @@
         <v>883421</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F80" s="7">
         <v>42442</v>
@@ -10994,10 +10988,10 @@
         <v>883465</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H81" s="11">
         <v>142510</v>
@@ -11011,13 +11005,13 @@
         <v>883474</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F82" s="7">
         <v>42423</v>
@@ -11040,13 +11034,13 @@
         <v>883479</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F83" s="7">
         <v>42547</v>
@@ -11069,13 +11063,13 @@
         <v>883480</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F84" s="7">
         <v>42425</v>
@@ -11098,13 +11092,13 @@
         <v>883495</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F85" s="7">
         <v>42468</v>
@@ -11127,13 +11121,13 @@
         <v>883496</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F86" s="7">
         <v>42462</v>
@@ -11156,13 +11150,13 @@
         <v>883572</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F87" s="7">
         <v>42565</v>
@@ -11185,13 +11179,13 @@
         <v>883615</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F88" s="7">
         <v>42586</v>
@@ -11214,13 +11208,13 @@
         <v>883692</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F89" s="7">
         <v>42623</v>
@@ -11243,13 +11237,13 @@
         <v>883716</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F90" s="7">
         <v>42441</v>
@@ -11272,13 +11266,13 @@
         <v>883745</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F91" s="7">
         <v>42637</v>
@@ -11301,13 +11295,13 @@
         <v>883843</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F92" s="7">
         <v>42543</v>
@@ -11330,13 +11324,13 @@
         <v>883961</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F93" s="7">
         <v>42544</v>
@@ -11359,13 +11353,13 @@
         <v>883962</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F94" s="6">
         <v>42723</v>
@@ -11388,13 +11382,13 @@
         <v>884046</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F95" s="7">
         <v>42551</v>
@@ -11417,13 +11411,13 @@
         <v>884047</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F96" s="7">
         <v>42387</v>
@@ -11446,13 +11440,13 @@
         <v>884050</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F97" s="6">
         <v>42431</v>
@@ -11475,13 +11469,13 @@
         <v>884065</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F98" s="7">
         <v>42514</v>
@@ -11504,13 +11498,13 @@
         <v>884098</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F99" s="7">
         <v>42511</v>
@@ -11533,13 +11527,13 @@
         <v>884102</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F100" s="7">
         <v>42435</v>
@@ -11562,13 +11556,13 @@
         <v>884108</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F101" s="7">
         <v>42597</v>
@@ -11591,13 +11585,13 @@
         <v>884139</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F102" s="7">
         <v>42463</v>
@@ -11620,13 +11614,13 @@
         <v>884175</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F103" s="7">
         <v>42666</v>
@@ -11649,13 +11643,13 @@
         <v>884179</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F104" s="7">
         <v>42574</v>
@@ -11678,13 +11672,13 @@
         <v>884191</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F105" s="7">
         <v>42671</v>
@@ -11707,13 +11701,13 @@
         <v>884266</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F106" s="7">
         <v>42499</v>
@@ -11736,13 +11730,13 @@
         <v>884288</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F107" s="7">
         <v>42538</v>
@@ -11765,13 +11759,13 @@
         <v>884314</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F108" s="7">
         <v>42406</v>
@@ -11794,13 +11788,13 @@
         <v>884352</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F109" s="7">
         <v>42652</v>
@@ -11823,13 +11817,13 @@
         <v>884388</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F110" s="6">
         <v>42465</v>
@@ -11852,13 +11846,13 @@
         <v>884406</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F111" s="7">
         <v>42492</v>
@@ -11881,13 +11875,13 @@
         <v>884476</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F112" s="7">
         <v>42666</v>
@@ -11910,13 +11904,13 @@
         <v>884552</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F113" s="7">
         <v>42391</v>
@@ -11939,13 +11933,13 @@
         <v>884654</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F114" s="7">
         <v>42504</v>
@@ -11968,13 +11962,13 @@
         <v>884756</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F115" s="7">
         <v>42625</v>
@@ -11997,13 +11991,13 @@
         <v>884780</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F116" s="7">
         <v>42549</v>
@@ -12026,13 +12020,13 @@
         <v>884867</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F117" s="7">
         <v>42702</v>
@@ -12055,13 +12049,13 @@
         <v>884888</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F118" s="7">
         <v>42572</v>
@@ -12084,13 +12078,13 @@
         <v>884933</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F119" s="7">
         <v>42639</v>
@@ -12113,13 +12107,13 @@
         <v>884951</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F120" s="7">
         <v>42619</v>
@@ -12142,13 +12136,13 @@
         <v>884993</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F121" s="7">
         <v>42595</v>
@@ -12171,13 +12165,13 @@
         <v>885007</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F122" s="7">
         <v>42690</v>
@@ -12200,13 +12194,13 @@
         <v>885107</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F123" s="7">
         <v>42722</v>
@@ -12229,13 +12223,13 @@
         <v>885125</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F124" s="7">
         <v>42399</v>
@@ -12258,13 +12252,13 @@
         <v>885174</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F125" s="7">
         <v>42503</v>
@@ -12287,13 +12281,13 @@
         <v>885192</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F126" s="7">
         <v>42720</v>
@@ -12316,13 +12310,13 @@
         <v>885192</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F127" s="7">
         <v>42603</v>
@@ -12345,13 +12339,13 @@
         <v>885193</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F128" s="7">
         <v>42701</v>
@@ -12374,13 +12368,13 @@
         <v>885209</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F129" s="7">
         <v>42567</v>
@@ -12403,13 +12397,13 @@
         <v>885301</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F130" s="7">
         <v>42729</v>
@@ -12432,13 +12426,13 @@
         <v>885383</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F131" s="7">
         <v>42597</v>
@@ -12461,13 +12455,13 @@
         <v>885530</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F132" s="7">
         <v>42592</v>
@@ -12490,13 +12484,13 @@
         <v>885709</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F133" s="6">
         <v>42723</v>
@@ -12519,13 +12513,13 @@
         <v>885812</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F134" s="7">
         <v>42584</v>
@@ -12548,13 +12542,13 @@
         <v>885822</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F135" s="7">
         <v>42486</v>
@@ -12577,13 +12571,13 @@
         <v>885824</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F136" s="6">
         <v>42382</v>
@@ -12606,13 +12600,13 @@
         <v>885838</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F137" s="7">
         <v>42664</v>
@@ -12635,13 +12629,13 @@
         <v>885945</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F138" s="6">
         <v>42414</v>
@@ -12664,13 +12658,13 @@
         <v>885966</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F139" s="7">
         <v>42606</v>
@@ -12693,13 +12687,13 @@
         <v>885992</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F140" s="7">
         <v>42495</v>
@@ -12722,13 +12716,13 @@
         <v>886054</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F141" s="7">
         <v>42370</v>
@@ -12751,13 +12745,13 @@
         <v>886139</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F142" s="6">
         <v>42521</v>
@@ -12780,13 +12774,13 @@
         <v>886204</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F143" s="7">
         <v>42601</v>
@@ -12809,13 +12803,13 @@
         <v>886251</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F144" s="7">
         <v>42548</v>
@@ -12838,13 +12832,13 @@
         <v>886259</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F145" s="7">
         <v>42714</v>
@@ -12867,13 +12861,13 @@
         <v>886295</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F146" s="7">
         <v>42550</v>
@@ -12896,13 +12890,13 @@
         <v>886315</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F147" s="7">
         <v>42578</v>
@@ -12925,13 +12919,13 @@
         <v>886345</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F148" s="7">
         <v>42720</v>
@@ -12954,13 +12948,13 @@
         <v>886409</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F149" s="7">
         <v>42698</v>
@@ -12983,13 +12977,13 @@
         <v>886430</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F150" s="7">
         <v>42421</v>
@@ -13012,13 +13006,13 @@
         <v>886487</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F151" s="7">
         <v>42585</v>
@@ -13041,13 +13035,13 @@
         <v>886525</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F152" s="7">
         <v>42561</v>
@@ -13070,13 +13064,13 @@
         <v>886533</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F153" s="7">
         <v>42702</v>
@@ -13099,13 +13093,13 @@
         <v>886543</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F154" s="7">
         <v>42541</v>
@@ -13128,13 +13122,13 @@
         <v>886567</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F155" s="7">
         <v>42380</v>
@@ -13157,13 +13151,13 @@
         <v>886633</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F156" s="7">
         <v>42417</v>
@@ -13186,13 +13180,13 @@
         <v>886684</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F157" s="7">
         <v>42585</v>
@@ -13215,13 +13209,13 @@
         <v>886716</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F158" s="7">
         <v>42724</v>
@@ -13244,13 +13238,13 @@
         <v>886727</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F159" s="6">
         <v>41263</v>
@@ -13273,13 +13267,13 @@
         <v>886759</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F160" s="7">
         <v>42640</v>
@@ -13302,13 +13296,13 @@
         <v>886797</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F161" s="7">
         <v>42649</v>
@@ -13331,13 +13325,13 @@
         <v>886908</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F162" s="7">
         <v>42626</v>
@@ -13360,13 +13354,13 @@
         <v>886910</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F163" s="7">
         <v>42547</v>
@@ -13389,13 +13383,13 @@
         <v>886958</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F164" s="7">
         <v>42598</v>
@@ -13418,13 +13412,13 @@
         <v>886992</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F165" s="7">
         <v>42600</v>
@@ -13447,13 +13441,13 @@
         <v>886992</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F166" s="7">
         <v>42612</v>
@@ -13476,13 +13470,13 @@
         <v>887087</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F167" s="7">
         <v>42454</v>
@@ -13505,13 +13499,13 @@
         <v>887106</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F168" s="7">
         <v>42591</v>
@@ -13534,13 +13528,13 @@
         <v>887114</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F169" s="6">
         <v>42503</v>
@@ -13563,13 +13557,13 @@
         <v>887139</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F170" s="7">
         <v>42483</v>
@@ -13592,13 +13586,13 @@
         <v>887226</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F171" s="7">
         <v>42702</v>
@@ -13621,13 +13615,13 @@
         <v>887276</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F172" s="6">
         <v>42378</v>
@@ -13650,13 +13644,13 @@
         <v>887280</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F173" s="6">
         <v>42561</v>
@@ -13679,13 +13673,13 @@
         <v>887467</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F174" s="7">
         <v>42591</v>
@@ -13708,13 +13702,13 @@
         <v>887535</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F175" s="7">
         <v>42405</v>
@@ -13737,13 +13731,13 @@
         <v>887607</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F176" s="6">
         <v>42594</v>
@@ -13766,13 +13760,13 @@
         <v>887629</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F177" s="7">
         <v>41264</v>
@@ -13795,13 +13789,13 @@
         <v>887759</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F178" s="7">
         <v>42670</v>
@@ -13824,13 +13818,13 @@
         <v>887780</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F179" s="6">
         <v>42456</v>
@@ -13853,13 +13847,13 @@
         <v>887816</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F180" s="7">
         <v>42404</v>
@@ -13882,13 +13876,13 @@
         <v>887832</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F181" s="7">
         <v>42543</v>
@@ -13911,13 +13905,13 @@
         <v>887969</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F182" s="6">
         <v>42372</v>
@@ -13940,13 +13934,13 @@
         <v>888019</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F183" s="7">
         <v>42566</v>
@@ -13969,13 +13963,13 @@
         <v>888056</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F184" s="7">
         <v>42420</v>
@@ -13998,13 +13992,13 @@
         <v>888158</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F185" s="7">
         <v>42423</v>
@@ -14027,13 +14021,13 @@
         <v>888168</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F186" s="7">
         <v>42516</v>
@@ -14056,13 +14050,13 @@
         <v>888253</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F187" s="7">
         <v>42653</v>
@@ -14085,13 +14079,13 @@
         <v>888398</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F188" s="7">
         <v>42458</v>
@@ -14114,13 +14108,13 @@
         <v>888418</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F189" s="7">
         <v>42621</v>
@@ -14143,13 +14137,13 @@
         <v>888492</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F190" s="7">
         <v>42380</v>
@@ -14172,13 +14166,13 @@
         <v>888576</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F191" s="7">
         <v>42704</v>
@@ -14201,13 +14195,13 @@
         <v>888581</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F192" s="7">
         <v>42489</v>
@@ -14230,13 +14224,13 @@
         <v>888613</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F193" s="7">
         <v>42672</v>
@@ -14259,13 +14253,13 @@
         <v>888632</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F194" s="7">
         <v>42587</v>
@@ -14288,13 +14282,13 @@
         <v>889013</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F195" s="7">
         <v>42503</v>
@@ -14317,13 +14311,13 @@
         <v>889215</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F196" s="6">
         <v>42473</v>
@@ -14346,13 +14340,13 @@
         <v>889258</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F197" s="6">
         <v>42372</v>
@@ -14375,13 +14369,13 @@
         <v>889272</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F198" s="7">
         <v>42564</v>
@@ -14404,13 +14398,13 @@
         <v>889327</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F199" s="7">
         <v>42706</v>
@@ -14433,13 +14427,13 @@
         <v>889373</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F200" s="7">
         <v>42697</v>
@@ -14462,13 +14456,13 @@
         <v>889443</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F201" s="7">
         <v>42516</v>
@@ -14491,13 +14485,13 @@
         <v>889453</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F202" s="7">
         <v>42681</v>
@@ -14520,13 +14514,13 @@
         <v>889485</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F203" s="7">
         <v>42589</v>
@@ -14549,13 +14543,13 @@
         <v>889494</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F204" s="7">
         <v>42620</v>
@@ -14578,13 +14572,13 @@
         <v>889512</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F205" s="7">
         <v>42513</v>
@@ -14607,13 +14601,13 @@
         <v>889535</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F206" s="7">
         <v>42405</v>
@@ -14636,13 +14630,13 @@
         <v>889536</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F207" s="7">
         <v>42390</v>
@@ -14665,13 +14659,13 @@
         <v>889550</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F208" s="7">
         <v>42730</v>
@@ -14694,13 +14688,13 @@
         <v>889572</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F209" s="7">
         <v>42647</v>
@@ -14723,13 +14717,13 @@
         <v>889591</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F210" s="7">
         <v>42370</v>
@@ -14752,13 +14746,13 @@
         <v>889615</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F211" s="7">
         <v>42454</v>
@@ -14781,13 +14775,13 @@
         <v>889627</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F212" s="6">
         <v>42732</v>
@@ -14810,13 +14804,13 @@
         <v>889631</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F213" s="7">
         <v>42486</v>
@@ -14839,13 +14833,13 @@
         <v>889702</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F214" s="7">
         <v>41266</v>
@@ -14868,13 +14862,13 @@
         <v>889713</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F215" s="7">
         <v>42451</v>
@@ -14897,13 +14891,13 @@
         <v>889851</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F216" s="7">
         <v>42457</v>
@@ -14926,13 +14920,13 @@
         <v>889877</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F217" s="7">
         <v>42591</v>
